--- a/D/data/ERα_activity.xlsx
+++ b/D/data/ERα_activity.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\modeling\D\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuo_nuaa\Desktop\建模\D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFD7D8-F9F8-4CDA-978F-98562DDDA757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620EC095-3963-488F-BE3D-F9CFCB1C51CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="training" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="test" sheetId="2" r:id="rId3"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="2028">
   <si>
     <t>SMILES</t>
   </si>
@@ -6103,6 +6102,10 @@
   </si>
   <si>
     <t>CCC(=C(c1ccc(O)cc1)c2ccc(OCCN3CCCC3)cc2)Cc4ccccc4</t>
+  </si>
+  <si>
+    <t>pIC50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6112,7 +6115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -6125,6 +6128,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6132,6 +6136,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6140,12 +6145,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6179,7 +6179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6210,6 +6210,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6488,7 +6489,7 @@
   <dimension ref="A1:C1975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28230,124 +28231,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD840C4-69EC-44B9-B1EF-A8A83D654FC5}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>8.6020599913279607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>8.1249387366082999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>8.5086383061657305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="C5" s="7">
-        <v>8.4089353929735005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="C6" s="7">
-        <v>8.1307682802690202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>490</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6.3098039199714897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="4" width="9" style="10"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -28355,308 +28254,609 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2027</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1977</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
+        <f>10^9 * EXP(-2.303*C2)</f>
+        <v>6692.1374908268854</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5.1735029220581046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1978</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B51" si="0">10^9 * EXP(-2.303*C3)</f>
+        <v>0.28402981517892323</v>
+      </c>
+      <c r="C3" s="10">
+        <v>9.5449161529541016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>1979</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86508037088285616</v>
+      </c>
+      <c r="C4" s="10">
+        <v>9.0613107681274414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>1980</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2480309633145408</v>
+      </c>
+      <c r="C5" s="10">
+        <v>9.6037635803222656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>1981</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.61318783964163104</v>
+      </c>
+      <c r="C6" s="10">
+        <v>9.2107467651367188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>1982</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2096378820857399</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8.6541194915771484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>1983</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3050837961100292</v>
+      </c>
+      <c r="C8" s="10">
+        <v>8.8827610015869141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>1984</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2448618753058478</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8.9032745361328125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>1985</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18242757438893248</v>
+      </c>
+      <c r="C10" s="10">
+        <v>9.7371549606323242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>1986</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5489349928819891</v>
+      </c>
+      <c r="C11" s="10">
+        <v>8.1823549270629883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>1987</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0924398520873222</v>
+      </c>
+      <c r="C12" s="10">
+        <v>8.0904626846313477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>1988</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8848025915183926</v>
+      </c>
+      <c r="C13" s="10">
+        <v>8.4091157913208008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>1989</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0649004854305991E-3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>11.38889789581299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>1990</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>7.879849282386572</v>
+      </c>
+      <c r="C15" s="10">
+        <v>8.1020221710205078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>1991</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3043473465923716</v>
+      </c>
+      <c r="C16" s="10">
+        <v>8.8830060958862305</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>1992</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57656421934224855</v>
+      </c>
+      <c r="C17" s="10">
+        <v>9.23748779296875</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>1993</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4507567589546282</v>
+      </c>
+      <c r="C18" s="10">
+        <v>8.262054443359375</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>1994</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9659034435858831</v>
+      </c>
+      <c r="C19" s="10">
+        <v>8.704869270324707</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>1995</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9738962106856768</v>
+      </c>
+      <c r="C20" s="10">
+        <v>8.155055046081543</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>1996</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.123958176107748</v>
+      </c>
+      <c r="C21" s="10">
+        <v>8.9476375579833984</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>1997</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8835127001968009E-2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>10.049604415893549</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>1998</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5454263580827119</v>
+      </c>
+      <c r="C23" s="10">
+        <v>8.1825876235961914</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>1999</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>33.283177176212575</v>
+      </c>
+      <c r="C24" s="10">
+        <v>7.4764280319213867</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>2000</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>22.01588795708679</v>
+      </c>
+      <c r="C25" s="10">
+        <v>7.6558842658996582</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>2001</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>304.9309608704088</v>
+      </c>
+      <c r="C26" s="10">
+        <v>6.5146245956420898</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>2002</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>243.6728553309627</v>
+      </c>
+      <c r="C27" s="10">
+        <v>6.6120014190673828</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>2003</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3543674835635082</v>
+      </c>
+      <c r="C28" s="10">
+        <v>8.3595685958862305</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>2004</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>160.29329870352137</v>
+      </c>
+      <c r="C29" s="10">
+        <v>6.7938604354858398</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>2005</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>139.2209758836577</v>
+      </c>
+      <c r="C30" s="10">
+        <v>6.8550601005554199</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>2006</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>368.914105888287</v>
+      </c>
+      <c r="C31" s="10">
+        <v>6.4319157600402832</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>2007</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>2169.3256890821117</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5.6626548767089844</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>2008</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>2193.8263653964632</v>
+      </c>
+      <c r="C33" s="10">
+        <v>5.657778263092041</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>2009</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>4272.6979477320474</v>
+      </c>
+      <c r="C34" s="10">
+        <v>5.3683304786682129</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>2010</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>12964.023080263272</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4.8863797187805176</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>2011</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
+        <v>20686.73865199482</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4.6834640502929688</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>2012</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="B37" s="3">
+        <f t="shared" si="0"/>
+        <v>42.101842349003846</v>
+      </c>
+      <c r="C37" s="10">
+        <v>7.3743700981140137</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>2013</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="B38" s="3">
+        <f t="shared" si="0"/>
+        <v>55.428379078845801</v>
+      </c>
+      <c r="C38" s="10">
+        <v>7.2549605369567871</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>2014</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="B39" s="3">
+        <f t="shared" si="0"/>
+        <v>77.745460637676089</v>
+      </c>
+      <c r="C39" s="10">
+        <v>7.1080441474914551</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>2015</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="B40" s="3">
+        <f t="shared" si="0"/>
+        <v>89634.744775215455</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4.0467944145202637</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>2016</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="B41" s="3">
+        <f t="shared" si="0"/>
+        <v>24609.7610863304</v>
+      </c>
+      <c r="C41" s="10">
+        <v>4.6080622673034668</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>2017</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="B42" s="3">
+        <f t="shared" si="0"/>
+        <v>13247.800055957921</v>
+      </c>
+      <c r="C42" s="10">
+        <v>4.8769774436950684</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>2018</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="B43" s="3">
+        <f t="shared" si="0"/>
+        <v>13046.629176788549</v>
+      </c>
+      <c r="C43" s="10">
+        <v>4.8836216926574707</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>2019</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="B44" s="3">
+        <f t="shared" si="0"/>
+        <v>71801.597783398902</v>
+      </c>
+      <c r="C44" s="10">
+        <v>4.1431193351745614</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>2020</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="B45" s="3">
+        <f t="shared" si="0"/>
+        <v>163011.67545025455</v>
+      </c>
+      <c r="C45" s="10">
+        <v>3.78709888458252</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>2021</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="B46" s="3">
+        <f t="shared" si="0"/>
+        <v>13247.800055957921</v>
+      </c>
+      <c r="C46" s="10">
+        <v>4.8769774436950684</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>2022</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="B47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24468605727344131</v>
+      </c>
+      <c r="C47" s="10">
+        <v>9.6096591949462891</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>2023</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="B48" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9251754988822172E-2</v>
+      </c>
+      <c r="C48" s="10">
+        <v>10.305721282958981</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>2024</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="B49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10703180542650853</v>
+      </c>
+      <c r="C49" s="10">
+        <v>9.9686908721923828</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>2025</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="B50" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3394785132971969</v>
+      </c>
+      <c r="C50" s="10">
+        <v>8.8714656829833984</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>2026</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="B51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24544551459578692</v>
+      </c>
+      <c r="C51" s="10">
+        <v>9.6083135604858398</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
